--- a/SimpCity US1 Test Case.xlsx
+++ b/SimpCity US1 Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem3.2-DevOps\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CFAC90-4A97-40DE-AD09-AF19CD569DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B62392A-7D46-491C-8D86-0F1E65CAD73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Test Scenarios for SimpCity</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>Before:</t>
-  </si>
-  <si>
-    <t>1. An error message shall be displayed to remind the users only number "0" to "5" will be accepted</t>
-  </si>
-  <si>
-    <t>2. The users shall be brought back to the main menu</t>
   </si>
   <si>
     <t>3. The system shall process the option value inputted accordingly</t>
@@ -207,14 +201,7 @@
     <t>A empty 4x4 board with the message "Turn 1" shall be displayed to the users. The confiugration menu with an option rangning from "0" to "5" should be displayed to the users. A message "Build where?" is printed to prompt the user to enter a position</t>
   </si>
   <si>
-    <t>1. The user enters an option value of the numeric interger "0" when the message "Your Choice?" is prompted to the users</t>
-  </si>
-  <si>
     <t>Main Menu displayed</t>
-  </si>
-  <si>
-    <t>After:
-1. [Any value except "1"]</t>
   </si>
   <si>
     <t>After (Nominal Value):
@@ -229,6 +216,31 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>1. The users enters any value except "0" to "2"</t>
+  </si>
+  <si>
+    <t>2. The user re-enters an option value of the numeric interger "1" when the message "Your Choice?" is prompted to the users.</t>
+  </si>
+  <si>
+    <t>3. The user selects the option value of "0"  to exit to the main menu</t>
+  </si>
+  <si>
+    <t>4. The user enters any value between "0" to "2", except for "1".</t>
+  </si>
+  <si>
+    <t>After:
+1. [Any value except "0" to "2"]</t>
+  </si>
+  <si>
+    <t>1. An error message shall be displayed to remind the users only number "0" to "2" will be accepted</t>
+  </si>
+  <si>
+    <t>2. The users shall see a empty 4x4 board with the message "Turn 1" shall be displayed to the users. The confiugration menu with an option rangning from "0" to "5" should be displayed to the users. A message "Build where?" is printed to prompt the user to enter a position</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -559,43 +571,78 @@
         <color rgb="FFD0CECE"/>
       </right>
       <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -606,22 +653,33 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFD0CECE"/>
       </right>
@@ -632,73 +690,217 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0CECE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFD0CECE"/>
       </top>
@@ -706,9 +908,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
       </right>
       <top/>
       <bottom/>
@@ -717,279 +921,79 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD0CECE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0CECE"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD0CECE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0CECE"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0CECE"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0CECE"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
@@ -1025,9 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1055,10 +1056,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1067,304 +1068,316 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1682,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2DA72-7E97-4469-AA72-7882EB50C205}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,448 +1713,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="124" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="14"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
-      <c r="B2" s="113" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="113" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="133" t="s">
+      <c r="F2" s="128"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="113" t="s">
+      <c r="I2" s="128"/>
+      <c r="J2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="83" t="s">
+      <c r="C3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="83" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="73" t="s">
+      <c r="J3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="82" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="82" t="s">
+      <c r="F4" s="88"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="71" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="64" t="s">
+      <c r="C5" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="64" t="s">
+      <c r="F5" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="71" t="s">
+      <c r="I5" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="99">
         <v>44545</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="101" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="101" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="67" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="132" t="s">
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="132" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="132" t="s">
+      <c r="F7" s="127"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="132"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="127"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="102" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="102" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="106" t="s">
+      <c r="G8" s="65"/>
+      <c r="H8" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="105" t="s">
+      <c r="I8" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="107" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="108" t="s">
+      <c r="I9" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="91" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="14"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="92"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
-        <v>1</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="E14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="F14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="56"/>
+    </row>
+    <row r="15" spans="1:12" s="11" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="C15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="D15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G15" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H15" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="57"/>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>2</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="I15" s="29"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="57"/>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="120">
+        <v>3</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="1:12" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="121"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="115"/>
+      <c r="H17" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" s="11" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="121"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="47" t="s">
+      <c r="E18" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="118"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="58"/>
-    </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121">
-        <v>3</v>
-      </c>
-      <c r="B16" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="128" t="s">
+      <c r="I18" s="29"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="122"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="1:12" s="12" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="35" t="s">
+      <c r="E19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="116"/>
-      <c r="H17" s="47" t="s">
+      <c r="F19" s="119"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="119"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="17"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="135"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="7"/>
@@ -2154,9 +2173,9 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -2167,9 +2186,9 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -2180,9 +2199,9 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -2193,9 +2212,9 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2203,10 +2222,10 @@
       <c r="J24" s="7"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="7"/>
@@ -2219,9 +2238,9 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2232,7 +2251,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="7"/>
@@ -2245,7 +2264,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="7"/>
@@ -2256,28 +2275,27 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
